--- a/DateBase/orders/Nha Thu_2025-8-2.xlsx
+++ b/DateBase/orders/Nha Thu_2025-8-2.xlsx
@@ -713,6 +713,9 @@
       <c r="G2" t="str">
         <v>014101210102012281010101561513520146151217</v>
       </c>
+      <c r="H2" t="str">
+        <v>CNY</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
